--- a/biology/Botanique/Psychotria_guianensis/Psychotria_guianensis.xlsx
+++ b/biology/Botanique/Psychotria_guianensis/Psychotria_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psychotria guianensis est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae.
-Il est connu dans le Pernambouc sous les noms de Erva-de-rato-branca, Pitiá-mole, ou Cafezinho[6].
+Il est connu dans le Pernambouc sous les noms de Erva-de-rato-branca, Pitiá-mole, ou Cafezinho.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Psychotria guianensis est un arbuste ou un arbre, glabre, atteignant jusqu'à 15 m de haut.
 Les feuilles mesurent 12-28 × 3-12 cm.
@@ -522,10 +536,10 @@
 Le limbe du calice est long de 0,5-1,2 mm, subtronqué à légèrement denté.
 La corolle est blanche, avec le tube long de 4-5,5 mm, et les lobes longs de 2-4,5 mm.
 Les fruits sont subglobuleux à ellipsoïde, mesurant 5-7,5 × 4-5 mm, rouge, avec des pédicelles ou stipes atteignant jusqu'à 5 mm de long. 
-Ils contiennent 2 pyrenes, dorsalement striés à presque lisses[7].
+Ils contiennent 2 pyrenes, dorsalement striés à presque lisses.
 En 1953, Lemée en propose la description suivante de Palicourea guianensis :
 « [Mapouria] guianensis Aubl. (Psychotria nitida W., Psychotria m. R. et Sch.). Arbrisseau à feuilles grandes (les plus grandes de 0,22 sur 0,12) pétiolées ovales aiguës acuminées, en coin à la base, molles glabres luisantes, stipules par 2 opposées, de chaque côté en dedans de la base du pétiole, ovales subarondies caduques ; panicules terminales plus courtes que les feuilles, ayant à la base 2 larges bractées (ou stipules ?), à ramifications opposées avec une tres petite bractéole (ou stipule ?) à la base ; fleurs blanches, calice évasé, à 5 dents avec pointe noire ; disque convexe, corolle à tube très court hérissé de poils blancs à l'entrée, 5 étamines insérées au-dessous de la base des lobes, filets longs filiformes exserts, anthères arrondies ; fruit ovale-globuleux strié. - Maroni : camp Godebert (R. Benoist). »
-— Albert Lemée, 1953.[8]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -553,9 +567,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychotria guianensis est présent de la Colombie au Brésil, en passant par le Venezuela, Trinidad et Tobago, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychotria guianensis est présent de la Colombie au Brésil, en passant par le Venezuela, Trinidad et Tobago, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie.
 </t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychotria guianensis est présente dans les forêts ripicoles, les forêts semi-décidues à sempervirentes de plaine et de montagne inférieure, à 50-700 m d'altitude[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychotria guianensis est présente dans les forêts ripicoles, les forêts semi-décidues à sempervirentes de plaine et de montagne inférieure, à 50-700 m d'altitude.
 </t>
         </is>
       </c>
@@ -615,9 +633,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet a proposé le protologue suivant[9] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet a proposé le protologue suivant : 
 « MAPOURIA (Guianenſis.) (Tabula 67.)
 Frutex, plurimos caules, rectos, ramoſos, octo-pedales, è radice emittens. Folia ampla, ovata, acuta, glabra, integerrima, petiolata. Stipule binæ, oppoſitæ, ſubrotundæ, deciduæ, una ab utroque latere, intra baſim petiolorum. Flores paniculati, terminates. Corolla alba.
 Florebat Septembri.
